--- a/NPLF Linkedin 2021.xlsx
+++ b/NPLF Linkedin 2021.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tasha/Desktop/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40846E4C-0247-EE4D-B5DB-B91D699B13F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C5AB94-DCC7-F149-BD7C-9CE6651A78CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{154C9140-4B2D-1348-A526-31AF9A8C837D}"/>
+    <workbookView xWindow="9720" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{154C9140-4B2D-1348-A526-31AF9A8C837D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Seniority" sheetId="2" r:id="rId1"/>
+    <sheet name="Industry" sheetId="3" r:id="rId2"/>
+    <sheet name="Company size" sheetId="4" r:id="rId3"/>
+    <sheet name="Update metrics (aggregated)" sheetId="1" r:id="rId4"/>
+    <sheet name="Update Engagement" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -94,13 +98,282 @@
   </si>
   <si>
     <t>Engagement rate (total)</t>
+  </si>
+  <si>
+    <t>Seniority</t>
+  </si>
+  <si>
+    <t>Total views</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>CXO</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Computer Software</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Motion Pictures and Film</t>
+  </si>
+  <si>
+    <t>Broadcast Media</t>
+  </si>
+  <si>
+    <t>Museums and Institutions</t>
+  </si>
+  <si>
+    <t>Performing Arts</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Primary/Secondary Education</t>
+  </si>
+  <si>
+    <t>Higher Education</t>
+  </si>
+  <si>
+    <t>Education Management</t>
+  </si>
+  <si>
+    <t>Government Administration</t>
+  </si>
+  <si>
+    <t>Public Safety</t>
+  </si>
+  <si>
+    <t>Marketing and Advertising</t>
+  </si>
+  <si>
+    <t>Libraries</t>
+  </si>
+  <si>
+    <t>Civic &amp; Social Organization</t>
+  </si>
+  <si>
+    <t>Transportation/Trucking/Railroad</t>
+  </si>
+  <si>
+    <t>Information Technology and Services</t>
+  </si>
+  <si>
+    <t>Public Relations and Communications</t>
+  </si>
+  <si>
+    <t>Nonprofit Organization Management</t>
+  </si>
+  <si>
+    <t>Fund-Raising</t>
+  </si>
+  <si>
+    <t>Staffing and Recruiting</t>
+  </si>
+  <si>
+    <t>Online Media</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Health, Wellness and Fitness</t>
+  </si>
+  <si>
+    <t>Mental Health Care</t>
+  </si>
+  <si>
+    <t>Company size</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>11-50</t>
+  </si>
+  <si>
+    <t>51-200</t>
+  </si>
+  <si>
+    <t>201-500</t>
+  </si>
+  <si>
+    <t>501-1000</t>
+  </si>
+  <si>
+    <t>1001-5000</t>
+  </si>
+  <si>
+    <t>5001-10000</t>
+  </si>
+  <si>
+    <t>10001+</t>
+  </si>
+  <si>
+    <t>Engagement metrics for individual updates. Created date indicates when your update was created. All dates and times are in UTC.</t>
+  </si>
+  <si>
+    <t>Update title</t>
+  </si>
+  <si>
+    <t>Update link</t>
+  </si>
+  <si>
+    <t>Update type</t>
+  </si>
+  <si>
+    <t>Campaign name</t>
+  </si>
+  <si>
+    <t>Posted by</t>
+  </si>
+  <si>
+    <t>Created date</t>
+  </si>
+  <si>
+    <t>Campaign start date</t>
+  </si>
+  <si>
+    <t>Campaign end date</t>
+  </si>
+  <si>
+    <t>Audience</t>
+  </si>
+  <si>
+    <t>Impressions</t>
+  </si>
+  <si>
+    <t>Video views</t>
+  </si>
+  <si>
+    <t>Clicks</t>
+  </si>
+  <si>
+    <t>Click through rate (CTR)</t>
+  </si>
+  <si>
+    <t>Likes</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Follows</t>
+  </si>
+  <si>
+    <t>Engagement rate</t>
+  </si>
+  <si>
+    <t>Our next Board of Directors feature is Bonnie Dow. Bonnie is a Professor of Communication Studies and Dean of Academic Initiatives for the College of Arts &amp; Science at Vanderbilt University. She is the author of Watching Women’s Liberation, 1970: Feminism’s Pivotal Year on the Network News (University of Illinois Press, 2014) and Prime-Time Feminism: Television, Media Culture, and the Women’s Movement Since 1970 (University of Pennsylvania Press, 1996). She is co-editor (with Julia T. Wood) of The Sage Handbook of Gender and Communication (2006) and a co-editor of The Aunt Lute Anthology of U.S. Women Writers, Volume One: 17th –19th Centuries (Aunt Lute Books, 2004). Dow’s research interests include the rhetoric and representation of the first and second waves of feminism in the United States. Bonnie received her B.A. from Baylor University, M.A. from The University of Kansas and Ph.D. from University of Minnesota. We’re proud to have such an accomplished woman with us at NPLF. Thanks for all you do, Bonnie!</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:6682292579746279424</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>Amber Valente</t>
+  </si>
+  <si>
+    <t>All followers</t>
+  </si>
+  <si>
+    <t>Today's Board of Directors feature is Lee Molette II. As a proud NPLF board member, Lee said, “This foundation really supports the entire public library system, Metro Nashville Public Schools, many preschools, after-school programs, community events and many more essential programs in the Nashville community.” He launched Molette Investment Services Group (MISG) in 1995 to provide services in securities investing and financial education, real estate investing, and business consulting and Frank Stanton Developers LLC in 2015 to further build his real estate development activities into a more active business. Lee is actively involved in the #Nashville community, including Omega Psi Phi Fraternity, Inc., Mount Zion Baptist Church where he serves as Deacon, Nashville Area Chamber of Commerce’s Nashville Business Coalition, Nashville Downtown Rotary, The 100 Black Men of Middle Tennessee, Inc., and he established the Molette Family Impact Advised Fund through the Community Foundation of Middle Tennessee. Lee was voted one of Nashville’s 100 most powerful and influential leaders two years in a row by Nashville Business Journal. The Nashville community and NPLF are lucky to have you, Lee. Thanks for all you do!</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:6681940950945669120</t>
+  </si>
+  <si>
+    <t>'More than just buildings' - libraries across the country are seeing an increase in demand for books (digital and physical), services and library cards. We're proud to provide #Nashville with the opportunity to stay connected, learn and grow with our online services. https://lnkd.in/eXUdpht NPR</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:6679373608621522944</t>
+  </si>
+  <si>
+    <t>Our next Board of Directors feature is Grace Awh, a brilliant lawyer, devoted mother, passionate community volunteer and thoughtful leader. Grace was born in Boston, grew up in New York, attended Wellesley College, and received her law degree from The George Washington University. Grace is extremely involved in Nashville’s community life, including but not limited to service on the Boards of The Women’s Fund of The Community Foundation of Middle Tennessee (past President), YWCA Nashville &amp; Middle Tennessee (co-chairing the Academy for Women of Achievement), THE WEST END HOME FOUNDATION, Cheekwood, University School of Nashville and Leadership Nashville. She co-chaired the Authors in the Round dinner and the Power of the Purse luncheon and served as Montgomery Bell Academy’s Mothers Club President. We’re glad Nashville and NPLF have someone like you, Grace! Thank you for all you do.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:6677220617642668033</t>
+  </si>
+  <si>
+    <t>This week's first Board of Directors feature is Ronette Adams-Taylor. She currently serves as Associate General Counsel/Director of Compliance &amp; Risk at Meharry Medical College. Previously she was a legal consultant for New York State Department of Civil Service and a privacy/legal compliance consultant for Affiliated Computer Services Inc. Ronette attended New York Law School, Carnegie Mellon University and Alcorn State University. The Nashville community and NPLF are lucky to have you, Ronette! Thanks for all you do.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:6676480619721080832</t>
+  </si>
+  <si>
+    <t>Jeanie Nelson, Margaret Behm, and Juli Mosley helped create Votes for Women, a new permanent exhibit at Nashville Public Library highlighting woman suffrage and the legacy of the 19th Amendment. The Votes for Women Project is an interactive exploration of the power of women and girls, the power of voting, and the power of power itself. It’s set to open at the Main Library in downtown Nashville on June 8, 2020.
+These women are recipients of the 2020 Liberty Bell Award for the hard work they put into this project. Congratulations! The honor is well deserved!
+Read more about Votes for Women https://lnkd.in/dr4exUp.
+Nashville Bar Association
+Nashville Public Library</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:6671850738005635072</t>
+  </si>
+  <si>
+    <t>Today’s Board of Directors feature is Joyce Searcy. Joyce is dedicated to furthering the #Nashville community through diversity and inclusion and her volunteer work highlights that. She currently serves as Belmont University’s Director of Community Relations. Joyce is involved with Nashville Area Chamber of Commerce, YWCA USA, Girl Scouts of the USA, Metro Human Relations Commission, Community Foundation of Middle Tennessee Women’s Fund, Girl Scouts of Middle Tennessee and Leadership Nashville among others. Recently, she was appointed second vice chair of the Nashville Area Hispanic Chamber of Commerce. 
+She has been honored with some of Nashville’s top awards: the Nashville Athena Award, Academy for Women of Achievement, the Metro Nashville Police Department’s Community Service Award, the NAHCC Diversity Award and their Board Member of the Year Award, and the Nashville Minority Business Center’s Corporate Award. We’re so proud to have a board member as accomplished and dedicated as Joyce at NPLF!</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:6671454754993905664</t>
+  </si>
+  <si>
+    <t>Bob Higgins is definitely a NPLF Board Member you should know. In addition to the work he does in the #Nashville community, he is the President and CEO of Barge Design Solutions, Inc. Recently, he was named one of the 2020 winners of Nashville Business Journal’s Commercial Real Estate Leadership Awards. He’s involved with Nashville Downtown Partnership, Nashville Area Chamber of Commerce, Saint Thomas Health Foundation and Nelson Andrews Leadership Center to name a few. Bob has been awarded Tennessee Society of Professional Engineers’ Engineer of the Year award, Nashville Business Journal’s Veterans Award, was named a Power Leader in Nashville Commercial Real Estate and a Most Admired CEO. Congratulations Bob! We are proud to have you as a member of the NPLF family.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:6668629362029412352</t>
+  </si>
+  <si>
+    <t>Congratulations to #NPLF Board Member Bob Higgins on this accomplishment! #NBJ Nashville Business Journal</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:6668247388110540800</t>
+  </si>
+  <si>
+    <t>Thank you for sharing how Nashville Public Library has impacted you, Susan! We're glad our online resources are helping Nashvillians during quarantine. #MyLibraryStory</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:6664178567900999682</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +386,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -136,9 +421,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +744,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E67D480-55CE-9949-9AD3-DC6EDFFFC8EF}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38899947-0D16-2B4C-98A5-91584A9A477F}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79F2D0C-2ED2-4746-8485-ED2350A4C9D5}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E456DD-35B7-7D4A-89D6-3733CC7E072F}">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
@@ -526,4 +1226,490 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BA2D1E-4AFA-2541-982F-EBE22E3B7B1E}">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3">
+        <v>44008</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3">
+        <v>98</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.0204081E-2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>3.0612245E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <v>44007</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4">
+        <v>298</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>2.0134227000000001E-2</v>
+      </c>
+      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>9.0604030000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5">
+        <v>44000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5">
+        <v>88</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2.2727272999999999E-2</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>6.8181820000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6">
+        <v>43994</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6">
+        <v>352</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>5.6818184000000001E-2</v>
+      </c>
+      <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>9.0909093999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <v>43992</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7">
+        <v>105</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>3.8095240000000002E-2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>6.6666669999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>43979</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8">
+        <v>194</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.1546389999999999E-3</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>5.6701030999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>43978</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9">
+        <v>167</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>1.7964073000000001E-2</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>7.1856290000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10">
+        <v>43970</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10">
+        <v>1014</v>
+      </c>
+      <c r="L10">
+        <v>17</v>
+      </c>
+      <c r="M10">
+        <v>1.6765285000000001E-2</v>
+      </c>
+      <c r="N10">
+        <v>37</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>5.719921E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>43969</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11">
+        <v>119</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>3.3613446999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12">
+        <v>43958</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12">
+        <v>116</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.6206900000000003E-3</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>4.3103449000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NPLF Linkedin 2021.xlsx
+++ b/NPLF Linkedin 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tasha/Desktop/NPLF-Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/CS/NPLF/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C5AB94-DCC7-F149-BD7C-9CE6651A78CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E5BB99-714D-7F4D-BE58-B0B3295F74DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{154C9140-4B2D-1348-A526-31AF9A8C837D}"/>
+    <workbookView xWindow="5560" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{154C9140-4B2D-1348-A526-31AF9A8C837D}"/>
   </bookViews>
   <sheets>
     <sheet name="Seniority" sheetId="2" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -431,6 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E456DD-35B7-7D4A-89D6-3733CC7E072F}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1222,6 +1223,33 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1232,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BA2D1E-4AFA-2541-982F-EBE22E3B7B1E}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
